--- a/StructureDefinition-lk-core-patient-profile.xlsx
+++ b/StructureDefinition-lk-core-patient-profile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3720" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3720" uniqueCount="451">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T00:18:27+05:30</t>
+    <t>2023-08-14T13:12:37+05:30</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -368,6 +368,9 @@
     <t>phn</t>
   </si>
   <si>
+    <t>Personal Health Number</t>
+  </si>
+  <si>
     <t>Patient.identifier:phn.id</t>
   </si>
   <si>
@@ -601,6 +604,9 @@
     <t>nic</t>
   </si>
   <si>
+    <t>National Identity Card Number</t>
+  </si>
+  <si>
     <t>Patient.identifier:nic.id</t>
   </si>
   <si>
@@ -634,6 +640,9 @@
     <t>ppn</t>
   </si>
   <si>
+    <t>Passport Number</t>
+  </si>
+  <si>
     <t>Patient.identifier:ppn.id</t>
   </si>
   <si>
@@ -667,6 +676,9 @@
     <t>scn</t>
   </si>
   <si>
+    <t>Senior Citizen Number</t>
+  </si>
+  <si>
     <t>Patient.identifier:scn.id</t>
   </si>
   <si>
@@ -700,6 +712,9 @@
     <t>dl</t>
   </si>
   <si>
+    <t>Driving License Number</t>
+  </si>
+  <si>
     <t>Patient.identifier:dl.id</t>
   </si>
   <si>
@@ -731,6 +746,9 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>Other Identifier Not Specified Above</t>
   </si>
   <si>
     <t>Patient.identifier:other.id</t>
@@ -936,29 +954,30 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {http://fhir.health.gov.lk/StructureDefinition/lk-core-address}
 </t>
   </si>
   <si>
-    <t>An address for the individual</t>
-  </si>
-  <si>
-    <t>An address for the individual.</t>
-  </si>
-  <si>
-    <t>Patient may have multiple addresses with different uses or applicable periods.</t>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
+  </si>
+  <si>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
+  </si>
+  <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
   </si>
   <si>
-    <t>addr</t>
-  </si>
-  <si>
-    <t>.addr</t>
-  </si>
-  <si>
-    <t>PID-11</t>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>XAD</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -1147,6 +1166,10 @@
     <t>Patient.contact.address</t>
   </si>
   <si>
+    <t xml:space="preserve">Address
+</t>
+  </si>
+  <si>
     <t>Address for the contact person</t>
   </si>
   <si>
@@ -1154,6 +1177,9 @@
   </si>
   <si>
     <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
+  </si>
+  <si>
+    <t>addr</t>
   </si>
   <si>
     <t>NK1-4</t>
@@ -1694,7 +1720,7 @@
     <col min="8" max="8" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="50.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2925,7 +2951,7 @@
         <v>100</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>102</v>
@@ -3013,10 +3039,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3039,13 +3065,13 @@
         <v>35</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3096,7 +3122,7 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>33</v>
@@ -3111,7 +3137,7 @@
         <v>35</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>35</v>
@@ -3128,10 +3154,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3160,7 +3186,7 @@
         <v>89</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N13" t="s" s="2">
         <v>91</v>
@@ -3201,19 +3227,19 @@
         <v>35</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>33</v>
@@ -3228,7 +3254,7 @@
         <v>93</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>35</v>
@@ -3245,10 +3271,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3274,16 +3300,16 @@
         <v>62</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>35</v>
@@ -3308,13 +3334,13 @@
         <v>35</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>35</v>
@@ -3332,7 +3358,7 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>33</v>
@@ -3347,7 +3373,7 @@
         <v>54</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>35</v>
@@ -3364,10 +3390,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3390,19 +3416,19 @@
         <v>43</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>35</v>
@@ -3427,13 +3453,13 @@
         <v>35</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>35</v>
@@ -3451,7 +3477,7 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>33</v>
@@ -3466,7 +3492,7 @@
         <v>54</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>35</v>
@@ -3475,7 +3501,7 @@
         <v>35</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>35</v>
@@ -3483,10 +3509,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3512,29 +3538,29 @@
         <v>56</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>35</v>
@@ -3570,7 +3596,7 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>33</v>
@@ -3585,7 +3611,7 @@
         <v>54</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>35</v>
@@ -3594,7 +3620,7 @@
         <v>35</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>35</v>
@@ -3602,10 +3628,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3628,16 +3654,16 @@
         <v>43</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3651,7 +3677,7 @@
         <v>35</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>35</v>
@@ -3687,7 +3713,7 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>33</v>
@@ -3702,7 +3728,7 @@
         <v>54</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>35</v>
@@ -3711,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>35</v>
@@ -3719,10 +3745,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3745,13 +3771,13 @@
         <v>43</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3802,7 +3828,7 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>33</v>
@@ -3817,7 +3843,7 @@
         <v>54</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>35</v>
@@ -3826,7 +3852,7 @@
         <v>35</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>35</v>
@@ -3834,10 +3860,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3860,16 +3886,16 @@
         <v>43</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3919,7 +3945,7 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>33</v>
@@ -3934,7 +3960,7 @@
         <v>54</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>35</v>
@@ -3943,7 +3969,7 @@
         <v>35</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>35</v>
@@ -3951,13 +3977,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>35</v>
@@ -3982,7 +4008,7 @@
         <v>100</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>102</v>
@@ -4070,10 +4096,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4096,13 +4122,13 @@
         <v>35</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4153,7 +4179,7 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>33</v>
@@ -4168,7 +4194,7 @@
         <v>35</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>35</v>
@@ -4185,10 +4211,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4217,7 +4243,7 @@
         <v>89</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>91</v>
@@ -4258,19 +4284,19 @@
         <v>35</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>33</v>
@@ -4285,7 +4311,7 @@
         <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>35</v>
@@ -4302,10 +4328,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4331,16 +4357,16 @@
         <v>62</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>35</v>
@@ -4365,13 +4391,13 @@
         <v>35</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>35</v>
@@ -4389,7 +4415,7 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>33</v>
@@ -4404,7 +4430,7 @@
         <v>54</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>35</v>
@@ -4421,10 +4447,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4447,19 +4473,19 @@
         <v>43</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>35</v>
@@ -4484,13 +4510,13 @@
         <v>35</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>35</v>
@@ -4508,7 +4534,7 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>33</v>
@@ -4523,7 +4549,7 @@
         <v>54</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>35</v>
@@ -4532,7 +4558,7 @@
         <v>35</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>35</v>
@@ -4540,10 +4566,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4569,29 +4595,29 @@
         <v>56</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>35</v>
@@ -4627,7 +4653,7 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>33</v>
@@ -4642,7 +4668,7 @@
         <v>54</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>35</v>
@@ -4651,7 +4677,7 @@
         <v>35</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>35</v>
@@ -4659,10 +4685,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4685,16 +4711,16 @@
         <v>43</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4708,7 +4734,7 @@
         <v>35</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>35</v>
@@ -4744,7 +4770,7 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>33</v>
@@ -4759,7 +4785,7 @@
         <v>54</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>35</v>
@@ -4768,7 +4794,7 @@
         <v>35</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>35</v>
@@ -4776,10 +4802,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4802,13 +4828,13 @@
         <v>43</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4859,7 +4885,7 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>33</v>
@@ -4874,7 +4900,7 @@
         <v>54</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>35</v>
@@ -4883,7 +4909,7 @@
         <v>35</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>35</v>
@@ -4891,10 +4917,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4917,16 +4943,16 @@
         <v>43</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4976,7 +5002,7 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>33</v>
@@ -4991,7 +5017,7 @@
         <v>54</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>35</v>
@@ -5000,7 +5026,7 @@
         <v>35</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>35</v>
@@ -5008,13 +5034,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>35</v>
@@ -5039,7 +5065,7 @@
         <v>100</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>102</v>
@@ -5127,10 +5153,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5153,13 +5179,13 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5210,7 +5236,7 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>33</v>
@@ -5225,7 +5251,7 @@
         <v>35</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>35</v>
@@ -5242,10 +5268,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5274,7 +5300,7 @@
         <v>89</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>91</v>
@@ -5315,19 +5341,19 @@
         <v>35</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>33</v>
@@ -5342,7 +5368,7 @@
         <v>93</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>35</v>
@@ -5359,10 +5385,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5388,16 +5414,16 @@
         <v>62</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>35</v>
@@ -5422,13 +5448,13 @@
         <v>35</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>35</v>
@@ -5446,7 +5472,7 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>33</v>
@@ -5461,7 +5487,7 @@
         <v>54</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>35</v>
@@ -5478,10 +5504,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5504,19 +5530,19 @@
         <v>43</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>35</v>
@@ -5541,13 +5567,13 @@
         <v>35</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>35</v>
@@ -5565,7 +5591,7 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>33</v>
@@ -5580,7 +5606,7 @@
         <v>54</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>35</v>
@@ -5589,7 +5615,7 @@
         <v>35</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>35</v>
@@ -5597,10 +5623,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5626,29 +5652,29 @@
         <v>56</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>35</v>
@@ -5684,7 +5710,7 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>33</v>
@@ -5699,7 +5725,7 @@
         <v>54</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>35</v>
@@ -5708,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>35</v>
@@ -5716,10 +5742,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5742,16 +5768,16 @@
         <v>43</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5765,7 +5791,7 @@
         <v>35</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>35</v>
@@ -5801,7 +5827,7 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>33</v>
@@ -5816,7 +5842,7 @@
         <v>54</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>35</v>
@@ -5825,7 +5851,7 @@
         <v>35</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>35</v>
@@ -5833,10 +5859,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5859,13 +5885,13 @@
         <v>43</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5916,7 +5942,7 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>33</v>
@@ -5931,7 +5957,7 @@
         <v>54</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>35</v>
@@ -5940,7 +5966,7 @@
         <v>35</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>35</v>
@@ -5948,10 +5974,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5974,16 +6000,16 @@
         <v>43</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6033,7 +6059,7 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>33</v>
@@ -6048,7 +6074,7 @@
         <v>54</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>35</v>
@@ -6057,7 +6083,7 @@
         <v>35</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>35</v>
@@ -6065,13 +6091,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>35</v>
@@ -6096,7 +6122,7 @@
         <v>100</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>102</v>
@@ -6184,10 +6210,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6210,13 +6236,13 @@
         <v>35</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6267,7 +6293,7 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>33</v>
@@ -6282,7 +6308,7 @@
         <v>35</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>35</v>
@@ -6299,10 +6325,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6331,7 +6357,7 @@
         <v>89</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>91</v>
@@ -6372,19 +6398,19 @@
         <v>35</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>33</v>
@@ -6399,7 +6425,7 @@
         <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>35</v>
@@ -6416,10 +6442,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6445,16 +6471,16 @@
         <v>62</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>35</v>
@@ -6479,13 +6505,13 @@
         <v>35</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>35</v>
@@ -6503,7 +6529,7 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>33</v>
@@ -6518,7 +6544,7 @@
         <v>54</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>35</v>
@@ -6535,10 +6561,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6561,19 +6587,19 @@
         <v>43</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>35</v>
@@ -6598,13 +6624,13 @@
         <v>35</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>35</v>
@@ -6622,7 +6648,7 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>33</v>
@@ -6637,7 +6663,7 @@
         <v>54</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>35</v>
@@ -6646,7 +6672,7 @@
         <v>35</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>35</v>
@@ -6654,10 +6680,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6683,29 +6709,29 @@
         <v>56</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>35</v>
@@ -6741,7 +6767,7 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>33</v>
@@ -6756,7 +6782,7 @@
         <v>54</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>35</v>
@@ -6765,7 +6791,7 @@
         <v>35</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>35</v>
@@ -6773,10 +6799,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6799,16 +6825,16 @@
         <v>43</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6822,7 +6848,7 @@
         <v>35</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>35</v>
@@ -6858,7 +6884,7 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>33</v>
@@ -6873,7 +6899,7 @@
         <v>54</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>35</v>
@@ -6882,7 +6908,7 @@
         <v>35</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>35</v>
@@ -6890,10 +6916,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6916,13 +6942,13 @@
         <v>43</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6973,7 +6999,7 @@
         <v>35</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>33</v>
@@ -6988,7 +7014,7 @@
         <v>54</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>35</v>
@@ -6997,7 +7023,7 @@
         <v>35</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>35</v>
@@ -7005,10 +7031,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7031,16 +7057,16 @@
         <v>43</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7090,7 +7116,7 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>33</v>
@@ -7105,7 +7131,7 @@
         <v>54</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>35</v>
@@ -7114,7 +7140,7 @@
         <v>35</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>35</v>
@@ -7122,13 +7148,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>35</v>
@@ -7153,7 +7179,7 @@
         <v>100</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>102</v>
@@ -7241,10 +7267,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7267,13 +7293,13 @@
         <v>35</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7324,7 +7350,7 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>33</v>
@@ -7339,7 +7365,7 @@
         <v>35</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>35</v>
@@ -7356,10 +7382,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7388,7 +7414,7 @@
         <v>89</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>91</v>
@@ -7429,19 +7455,19 @@
         <v>35</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>33</v>
@@ -7456,7 +7482,7 @@
         <v>93</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>35</v>
@@ -7473,10 +7499,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7502,16 +7528,16 @@
         <v>62</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>35</v>
@@ -7536,13 +7562,13 @@
         <v>35</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>35</v>
@@ -7560,7 +7586,7 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>33</v>
@@ -7575,7 +7601,7 @@
         <v>54</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>35</v>
@@ -7592,10 +7618,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7618,19 +7644,19 @@
         <v>43</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>35</v>
@@ -7655,13 +7681,13 @@
         <v>35</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>35</v>
@@ -7679,7 +7705,7 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>33</v>
@@ -7694,7 +7720,7 @@
         <v>54</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>35</v>
@@ -7703,7 +7729,7 @@
         <v>35</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>35</v>
@@ -7711,10 +7737,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7740,29 +7766,29 @@
         <v>56</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>35</v>
@@ -7798,7 +7824,7 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>33</v>
@@ -7813,7 +7839,7 @@
         <v>54</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>35</v>
@@ -7822,7 +7848,7 @@
         <v>35</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>35</v>
@@ -7830,10 +7856,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7856,16 +7882,16 @@
         <v>43</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7879,7 +7905,7 @@
         <v>35</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>35</v>
@@ -7915,7 +7941,7 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>33</v>
@@ -7930,7 +7956,7 @@
         <v>54</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>35</v>
@@ -7939,7 +7965,7 @@
         <v>35</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>35</v>
@@ -7947,10 +7973,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7973,13 +7999,13 @@
         <v>43</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8030,7 +8056,7 @@
         <v>35</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>33</v>
@@ -8045,7 +8071,7 @@
         <v>54</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>35</v>
@@ -8054,7 +8080,7 @@
         <v>35</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>35</v>
@@ -8062,10 +8088,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8088,16 +8114,16 @@
         <v>43</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8147,7 +8173,7 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>33</v>
@@ -8162,7 +8188,7 @@
         <v>54</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>35</v>
@@ -8171,7 +8197,7 @@
         <v>35</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>35</v>
@@ -8179,13 +8205,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>35</v>
@@ -8210,7 +8236,7 @@
         <v>100</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>101</v>
+        <v>237</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>102</v>
@@ -8298,10 +8324,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8324,13 +8350,13 @@
         <v>35</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8381,7 +8407,7 @@
         <v>35</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>33</v>
@@ -8396,7 +8422,7 @@
         <v>35</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>35</v>
@@ -8413,10 +8439,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8445,7 +8471,7 @@
         <v>89</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>91</v>
@@ -8486,19 +8512,19 @@
         <v>35</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>33</v>
@@ -8513,7 +8539,7 @@
         <v>93</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>35</v>
@@ -8530,10 +8556,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8559,16 +8585,16 @@
         <v>62</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>35</v>
@@ -8593,13 +8619,13 @@
         <v>35</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>35</v>
@@ -8617,7 +8643,7 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>33</v>
@@ -8632,7 +8658,7 @@
         <v>54</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>35</v>
@@ -8649,10 +8675,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8675,19 +8701,19 @@
         <v>43</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>35</v>
@@ -8712,13 +8738,13 @@
         <v>35</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>35</v>
@@ -8736,7 +8762,7 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>33</v>
@@ -8751,7 +8777,7 @@
         <v>54</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>35</v>
@@ -8760,7 +8786,7 @@
         <v>35</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>35</v>
@@ -8768,10 +8794,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8797,29 +8823,29 @@
         <v>56</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>35</v>
@@ -8855,7 +8881,7 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>33</v>
@@ -8870,7 +8896,7 @@
         <v>54</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>35</v>
@@ -8879,7 +8905,7 @@
         <v>35</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>35</v>
@@ -8887,10 +8913,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8913,16 +8939,16 @@
         <v>43</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8936,7 +8962,7 @@
         <v>35</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>35</v>
@@ -8972,7 +8998,7 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>33</v>
@@ -8987,7 +9013,7 @@
         <v>54</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>35</v>
@@ -8996,7 +9022,7 @@
         <v>35</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>35</v>
@@ -9004,10 +9030,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9030,13 +9056,13 @@
         <v>43</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9087,7 +9113,7 @@
         <v>35</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>33</v>
@@ -9102,7 +9128,7 @@
         <v>54</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>35</v>
@@ -9111,7 +9137,7 @@
         <v>35</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>35</v>
@@ -9119,10 +9145,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9145,16 +9171,16 @@
         <v>43</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9204,7 +9230,7 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>33</v>
@@ -9219,7 +9245,7 @@
         <v>54</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>35</v>
@@ -9228,7 +9254,7 @@
         <v>35</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>35</v>
@@ -9236,10 +9262,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9262,70 +9288,70 @@
         <v>43</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q65" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>33</v>
@@ -9340,13 +9366,13 @@
         <v>54</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>35</v>
@@ -9357,10 +9383,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9383,19 +9409,19 @@
         <v>43</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>35</v>
@@ -9444,7 +9470,7 @@
         <v>35</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>33</v>
@@ -9459,16 +9485,16 @@
         <v>54</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>35</v>
@@ -9476,10 +9502,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9502,19 +9528,19 @@
         <v>43</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>35</v>
@@ -9563,7 +9589,7 @@
         <v>35</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>33</v>
@@ -9578,16 +9604,16 @@
         <v>54</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>35</v>
@@ -9595,10 +9621,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9624,16 +9650,16 @@
         <v>62</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>35</v>
@@ -9658,31 +9684,31 @@
         <v>35</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Z68" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF68" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>33</v>
@@ -9697,16 +9723,16 @@
         <v>54</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>35</v>
@@ -9714,10 +9740,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9740,19 +9766,19 @@
         <v>43</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>35</v>
@@ -9801,7 +9827,7 @@
         <v>35</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>33</v>
@@ -9816,27 +9842,27 @@
         <v>54</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9859,19 +9885,19 @@
         <v>43</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>35</v>
@@ -9920,7 +9946,7 @@
         <v>35</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>33</v>
@@ -9935,16 +9961,16 @@
         <v>54</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>35</v>
@@ -9952,10 +9978,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9975,22 +10001,22 @@
         <v>35</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>35</v>
@@ -10039,7 +10065,7 @@
         <v>35</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>33</v>
@@ -10048,22 +10074,22 @@
         <v>34</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>35</v>
+        <v>308</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>54</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>303</v>
+        <v>35</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>35</v>
@@ -10071,10 +10097,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10097,17 +10123,17 @@
         <v>35</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>35</v>
@@ -10132,13 +10158,13 @@
         <v>35</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>35</v>
@@ -10156,7 +10182,7 @@
         <v>35</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>33</v>
@@ -10171,16 +10197,16 @@
         <v>54</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>35</v>
@@ -10188,10 +10214,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10214,19 +10240,19 @@
         <v>35</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>35</v>
@@ -10275,7 +10301,7 @@
         <v>35</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>33</v>
@@ -10290,16 +10316,16 @@
         <v>54</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>35</v>
@@ -10307,10 +10333,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10333,19 +10359,19 @@
         <v>35</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>35</v>
@@ -10394,7 +10420,7 @@
         <v>35</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>33</v>
@@ -10409,16 +10435,16 @@
         <v>54</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>35</v>
@@ -10426,10 +10452,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10452,19 +10478,19 @@
         <v>35</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>35</v>
@@ -10513,7 +10539,7 @@
         <v>35</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>33</v>
@@ -10525,13 +10551,13 @@
         <v>35</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>35</v>
@@ -10545,10 +10571,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10571,13 +10597,13 @@
         <v>35</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10628,7 +10654,7 @@
         <v>35</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>33</v>
@@ -10643,7 +10669,7 @@
         <v>35</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>35</v>
@@ -10660,10 +10686,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10692,7 +10718,7 @@
         <v>89</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>91</v>
@@ -10745,7 +10771,7 @@
         <v>35</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>33</v>
@@ -10760,7 +10786,7 @@
         <v>93</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>35</v>
@@ -10777,14 +10803,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10806,10 +10832,10 @@
         <v>88</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>91</v>
@@ -10864,7 +10890,7 @@
         <v>35</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>33</v>
@@ -10896,10 +10922,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10922,17 +10948,17 @@
         <v>35</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>35</v>
@@ -10957,13 +10983,13 @@
         <v>35</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>35</v>
@@ -10981,7 +11007,7 @@
         <v>35</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>33</v>
@@ -10996,16 +11022,16 @@
         <v>54</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>35</v>
@@ -11013,10 +11039,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11039,17 +11065,17 @@
         <v>35</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>35</v>
@@ -11098,7 +11124,7 @@
         <v>35</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>33</v>
@@ -11113,16 +11139,16 @@
         <v>54</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>35</v>
@@ -11130,10 +11156,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11156,19 +11182,19 @@
         <v>35</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>35</v>
@@ -11217,7 +11243,7 @@
         <v>35</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>33</v>
@@ -11232,16 +11258,16 @@
         <v>54</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>35</v>
@@ -11249,10 +11275,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11275,17 +11301,17 @@
         <v>35</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>297</v>
+        <v>370</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>35</v>
@@ -11334,7 +11360,7 @@
         <v>35</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>33</v>
@@ -11349,16 +11375,16 @@
         <v>54</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>302</v>
+        <v>374</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>35</v>
@@ -11366,10 +11392,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11395,14 +11421,14 @@
         <v>62</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>35</v>
@@ -11427,13 +11453,13 @@
         <v>35</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>35</v>
@@ -11451,7 +11477,7 @@
         <v>35</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>33</v>
@@ -11466,16 +11492,16 @@
         <v>54</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>35</v>
@@ -11483,10 +11509,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11509,17 +11535,17 @@
         <v>35</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>35</v>
@@ -11568,7 +11594,7 @@
         <v>35</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>33</v>
@@ -11577,22 +11603,22 @@
         <v>42</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>54</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>35</v>
@@ -11600,10 +11626,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11626,13 +11652,13 @@
         <v>35</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11683,7 +11709,7 @@
         <v>35</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>33</v>
@@ -11698,10 +11724,10 @@
         <v>54</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>35</v>
@@ -11715,10 +11741,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11741,19 +11767,19 @@
         <v>35</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>35</v>
@@ -11802,7 +11828,7 @@
         <v>35</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>33</v>
@@ -11817,10 +11843,10 @@
         <v>54</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>35</v>
@@ -11834,10 +11860,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11860,13 +11886,13 @@
         <v>35</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11917,7 +11943,7 @@
         <v>35</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>33</v>
@@ -11932,7 +11958,7 @@
         <v>35</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>35</v>
@@ -11949,10 +11975,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11981,7 +12007,7 @@
         <v>89</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>91</v>
@@ -12034,7 +12060,7 @@
         <v>35</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>33</v>
@@ -12049,7 +12075,7 @@
         <v>93</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>35</v>
@@ -12066,14 +12092,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12095,10 +12121,10 @@
         <v>88</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>91</v>
@@ -12153,7 +12179,7 @@
         <v>35</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>33</v>
@@ -12185,10 +12211,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12211,19 +12237,19 @@
         <v>35</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>35</v>
@@ -12272,7 +12298,7 @@
         <v>35</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>42</v>
@@ -12287,16 +12313,16 @@
         <v>54</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>35</v>
@@ -12304,10 +12330,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12330,19 +12356,19 @@
         <v>35</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>35</v>
@@ -12391,7 +12417,7 @@
         <v>35</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>33</v>
@@ -12406,16 +12432,16 @@
         <v>54</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>35</v>
@@ -12423,14 +12449,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12449,16 +12475,16 @@
         <v>35</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12508,7 +12534,7 @@
         <v>35</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>33</v>
@@ -12523,16 +12549,16 @@
         <v>54</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>35</v>
@@ -12540,10 +12566,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12566,19 +12592,19 @@
         <v>43</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>35</v>
@@ -12627,7 +12653,7 @@
         <v>35</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>33</v>
@@ -12642,10 +12668,10 @@
         <v>54</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>35</v>
@@ -12659,10 +12685,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12685,19 +12711,19 @@
         <v>43</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>35</v>
@@ -12746,7 +12772,7 @@
         <v>35</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>33</v>
@@ -12761,10 +12787,10 @@
         <v>54</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>35</v>
@@ -12778,10 +12804,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12804,13 +12830,13 @@
         <v>35</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12861,7 +12887,7 @@
         <v>35</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>33</v>
@@ -12876,7 +12902,7 @@
         <v>35</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>35</v>
@@ -12893,10 +12919,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12925,7 +12951,7 @@
         <v>89</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>91</v>
@@ -12978,7 +13004,7 @@
         <v>35</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>33</v>
@@ -12993,7 +13019,7 @@
         <v>93</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>35</v>
@@ -13010,14 +13036,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13039,10 +13065,10 @@
         <v>88</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>91</v>
@@ -13097,7 +13123,7 @@
         <v>35</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>33</v>
@@ -13129,10 +13155,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13155,16 +13181,16 @@
         <v>43</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13214,7 +13240,7 @@
         <v>35</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>42</v>
@@ -13232,13 +13258,13 @@
         <v>106</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>35</v>
@@ -13246,10 +13272,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13275,10 +13301,10 @@
         <v>62</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13305,13 +13331,13 @@
         <v>35</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>35</v>
@@ -13329,7 +13355,7 @@
         <v>35</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>42</v>
@@ -13344,10 +13370,10 @@
         <v>54</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>35</v>

--- a/StructureDefinition-lk-core-patient-profile.xlsx
+++ b/StructureDefinition-lk-core-patient-profile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3720" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3720" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T13:12:37+05:30</t>
+    <t>2023-09-05T15:30:49+05:30</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -1849,13 +1853,13 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>35</v>
@@ -1869,10 +1873,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1883,7 +1887,7 @@
         <v>33</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -1892,19 +1896,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1954,13 +1958,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -1986,10 +1990,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2000,7 +2004,7 @@
         <v>33</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -2009,16 +2013,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2069,19 +2073,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -2101,10 +2105,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2115,28 +2119,28 @@
         <v>33</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2186,19 +2190,19 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>35</v>
@@ -2218,10 +2222,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2232,7 +2236,7 @@
         <v>33</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>35</v>
@@ -2244,16 +2248,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2279,13 +2283,13 @@
         <v>35</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>35</v>
@@ -2303,19 +2307,19 @@
         <v>35</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -2335,21 +2339,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>33</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>35</v>
@@ -2361,16 +2365,16 @@
         <v>35</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2420,22 +2424,22 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>35</v>
@@ -2452,14 +2456,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2478,16 +2482,16 @@
         <v>35</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2537,7 +2541,7 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>33</v>
@@ -2552,7 +2556,7 @@
         <v>35</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>35</v>
@@ -2569,14 +2573,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2595,16 +2599,16 @@
         <v>35</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2654,7 +2658,7 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>33</v>
@@ -2666,10 +2670,10 @@
         <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>35</v>
@@ -2686,14 +2690,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2706,25 +2710,25 @@
         <v>35</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>35</v>
@@ -2773,7 +2777,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>33</v>
@@ -2785,10 +2789,10 @@
         <v>35</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>35</v>
@@ -2805,10 +2809,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2816,7 +2820,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>34</v>
@@ -2828,20 +2832,20 @@
         <v>35</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>35</v>
@@ -2878,17 +2882,17 @@
         <v>35</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>33</v>
@@ -2900,19 +2904,19 @@
         <v>35</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>35</v>
@@ -2920,23 +2924,23 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>35</v>
@@ -2945,20 +2949,20 @@
         <v>35</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>35</v>
@@ -3007,7 +3011,7 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>33</v>
@@ -3019,19 +3023,19 @@
         <v>35</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>35</v>
@@ -3039,10 +3043,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3053,7 +3057,7 @@
         <v>33</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>35</v>
@@ -3065,13 +3069,13 @@
         <v>35</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3122,13 +3126,13 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>35</v>
@@ -3137,7 +3141,7 @@
         <v>35</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>35</v>
@@ -3154,14 +3158,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3180,16 +3184,16 @@
         <v>35</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3227,19 +3231,19 @@
         <v>35</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>33</v>
@@ -3251,10 +3255,10 @@
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>35</v>
@@ -3271,10 +3275,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3285,31 +3289,31 @@
         <v>33</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>35</v>
@@ -3334,13 +3338,13 @@
         <v>35</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>35</v>
@@ -3358,22 +3362,22 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>35</v>
@@ -3382,7 +3386,7 @@
         <v>35</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>35</v>
@@ -3390,10 +3394,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3404,7 +3408,7 @@
         <v>33</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>35</v>
@@ -3413,22 +3417,22 @@
         <v>35</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>35</v>
@@ -3453,13 +3457,13 @@
         <v>35</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>35</v>
@@ -3477,22 +3481,22 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>35</v>
@@ -3501,7 +3505,7 @@
         <v>35</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>35</v>
@@ -3509,10 +3513,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3520,10 +3524,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>35</v>
@@ -3532,35 +3536,35 @@
         <v>35</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>35</v>
@@ -3596,22 +3600,22 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>35</v>
@@ -3620,7 +3624,7 @@
         <v>35</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>35</v>
@@ -3628,10 +3632,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3639,10 +3643,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>35</v>
@@ -3651,19 +3655,19 @@
         <v>35</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3677,7 +3681,7 @@
         <v>35</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>35</v>
@@ -3713,22 +3717,22 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>35</v>
@@ -3737,7 +3741,7 @@
         <v>35</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>35</v>
@@ -3745,10 +3749,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3759,7 +3763,7 @@
         <v>33</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>35</v>
@@ -3768,16 +3772,16 @@
         <v>35</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3828,22 +3832,22 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>35</v>
@@ -3852,7 +3856,7 @@
         <v>35</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>35</v>
@@ -3860,10 +3864,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3874,7 +3878,7 @@
         <v>33</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>35</v>
@@ -3883,19 +3887,19 @@
         <v>35</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3945,22 +3949,22 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>35</v>
@@ -3969,7 +3973,7 @@
         <v>35</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>35</v>
@@ -3977,13 +3981,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>35</v>
@@ -4002,20 +4006,20 @@
         <v>35</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>35</v>
@@ -4064,7 +4068,7 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>33</v>
@@ -4076,19 +4080,19 @@
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>35</v>
@@ -4096,10 +4100,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4110,7 +4114,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>35</v>
@@ -4122,13 +4126,13 @@
         <v>35</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4179,13 +4183,13 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>35</v>
@@ -4194,7 +4198,7 @@
         <v>35</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>35</v>
@@ -4211,14 +4215,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4237,16 +4241,16 @@
         <v>35</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4284,19 +4288,19 @@
         <v>35</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>33</v>
@@ -4308,10 +4312,10 @@
         <v>35</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>35</v>
@@ -4328,10 +4332,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4342,31 +4346,31 @@
         <v>33</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>35</v>
@@ -4391,13 +4395,13 @@
         <v>35</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>35</v>
@@ -4415,22 +4419,22 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>35</v>
@@ -4439,7 +4443,7 @@
         <v>35</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>35</v>
@@ -4447,10 +4451,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4461,7 +4465,7 @@
         <v>33</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>35</v>
@@ -4470,22 +4474,22 @@
         <v>35</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>35</v>
@@ -4510,13 +4514,13 @@
         <v>35</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>35</v>
@@ -4534,22 +4538,22 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>35</v>
@@ -4558,7 +4562,7 @@
         <v>35</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>35</v>
@@ -4566,10 +4570,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4577,10 +4581,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>35</v>
@@ -4589,35 +4593,35 @@
         <v>35</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>35</v>
@@ -4653,22 +4657,22 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>35</v>
@@ -4677,7 +4681,7 @@
         <v>35</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>35</v>
@@ -4685,10 +4689,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4696,10 +4700,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>35</v>
@@ -4708,19 +4712,19 @@
         <v>35</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4734,7 +4738,7 @@
         <v>35</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>35</v>
@@ -4770,22 +4774,22 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>35</v>
@@ -4794,7 +4798,7 @@
         <v>35</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>35</v>
@@ -4802,10 +4806,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4816,7 +4820,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>35</v>
@@ -4825,16 +4829,16 @@
         <v>35</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4885,22 +4889,22 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>35</v>
@@ -4909,7 +4913,7 @@
         <v>35</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>35</v>
@@ -4917,10 +4921,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4931,7 +4935,7 @@
         <v>33</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>35</v>
@@ -4940,19 +4944,19 @@
         <v>35</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5002,22 +5006,22 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>35</v>
@@ -5026,7 +5030,7 @@
         <v>35</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>35</v>
@@ -5034,13 +5038,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>35</v>
@@ -5059,20 +5063,20 @@
         <v>35</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>35</v>
@@ -5121,7 +5125,7 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>33</v>
@@ -5133,19 +5137,19 @@
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>35</v>
@@ -5153,10 +5157,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5167,7 +5171,7 @@
         <v>33</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>35</v>
@@ -5179,13 +5183,13 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5236,13 +5240,13 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>35</v>
@@ -5251,7 +5255,7 @@
         <v>35</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>35</v>
@@ -5268,14 +5272,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5294,16 +5298,16 @@
         <v>35</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5341,19 +5345,19 @@
         <v>35</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>33</v>
@@ -5365,10 +5369,10 @@
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>35</v>
@@ -5385,10 +5389,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5399,31 +5403,31 @@
         <v>33</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>35</v>
@@ -5448,13 +5452,13 @@
         <v>35</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>35</v>
@@ -5472,22 +5476,22 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>35</v>
@@ -5496,7 +5500,7 @@
         <v>35</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>35</v>
@@ -5504,10 +5508,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5518,7 +5522,7 @@
         <v>33</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>35</v>
@@ -5527,22 +5531,22 @@
         <v>35</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>35</v>
@@ -5567,13 +5571,13 @@
         <v>35</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>35</v>
@@ -5591,22 +5595,22 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>35</v>
@@ -5615,7 +5619,7 @@
         <v>35</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>35</v>
@@ -5623,10 +5627,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5634,10 +5638,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>35</v>
@@ -5646,35 +5650,35 @@
         <v>35</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>35</v>
@@ -5710,22 +5714,22 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>35</v>
@@ -5734,7 +5738,7 @@
         <v>35</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>35</v>
@@ -5742,10 +5746,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5753,10 +5757,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>35</v>
@@ -5765,19 +5769,19 @@
         <v>35</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5791,7 +5795,7 @@
         <v>35</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>35</v>
@@ -5827,22 +5831,22 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>35</v>
@@ -5851,7 +5855,7 @@
         <v>35</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>35</v>
@@ -5859,10 +5863,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5873,7 +5877,7 @@
         <v>33</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>35</v>
@@ -5882,16 +5886,16 @@
         <v>35</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5942,22 +5946,22 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>35</v>
@@ -5966,7 +5970,7 @@
         <v>35</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>35</v>
@@ -5974,10 +5978,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5988,7 +5992,7 @@
         <v>33</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>35</v>
@@ -5997,19 +6001,19 @@
         <v>35</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6059,22 +6063,22 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>35</v>
@@ -6083,7 +6087,7 @@
         <v>35</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>35</v>
@@ -6091,13 +6095,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>35</v>
@@ -6116,20 +6120,20 @@
         <v>35</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>35</v>
@@ -6178,7 +6182,7 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>33</v>
@@ -6190,19 +6194,19 @@
         <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>35</v>
@@ -6210,10 +6214,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6224,7 +6228,7 @@
         <v>33</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>35</v>
@@ -6236,13 +6240,13 @@
         <v>35</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6293,13 +6297,13 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>35</v>
@@ -6308,7 +6312,7 @@
         <v>35</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>35</v>
@@ -6325,14 +6329,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6351,16 +6355,16 @@
         <v>35</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6398,19 +6402,19 @@
         <v>35</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>33</v>
@@ -6422,10 +6426,10 @@
         <v>35</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>35</v>
@@ -6442,10 +6446,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6456,31 +6460,31 @@
         <v>33</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>35</v>
@@ -6505,13 +6509,13 @@
         <v>35</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>35</v>
@@ -6529,22 +6533,22 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>35</v>
@@ -6553,7 +6557,7 @@
         <v>35</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>35</v>
@@ -6561,10 +6565,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6575,7 +6579,7 @@
         <v>33</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>35</v>
@@ -6584,22 +6588,22 @@
         <v>35</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>35</v>
@@ -6624,13 +6628,13 @@
         <v>35</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>35</v>
@@ -6648,22 +6652,22 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>35</v>
@@ -6672,7 +6676,7 @@
         <v>35</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>35</v>
@@ -6680,10 +6684,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6691,10 +6695,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>35</v>
@@ -6703,35 +6707,35 @@
         <v>35</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>35</v>
@@ -6767,22 +6771,22 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>35</v>
@@ -6791,7 +6795,7 @@
         <v>35</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>35</v>
@@ -6799,10 +6803,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6810,10 +6814,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>35</v>
@@ -6822,19 +6826,19 @@
         <v>35</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6848,7 +6852,7 @@
         <v>35</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>35</v>
@@ -6884,22 +6888,22 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>35</v>
@@ -6908,7 +6912,7 @@
         <v>35</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>35</v>
@@ -6916,10 +6920,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6930,7 +6934,7 @@
         <v>33</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>35</v>
@@ -6939,16 +6943,16 @@
         <v>35</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6999,22 +7003,22 @@
         <v>35</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>35</v>
@@ -7023,7 +7027,7 @@
         <v>35</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>35</v>
@@ -7031,10 +7035,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7045,7 +7049,7 @@
         <v>33</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>35</v>
@@ -7054,19 +7058,19 @@
         <v>35</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7116,22 +7120,22 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>35</v>
@@ -7140,7 +7144,7 @@
         <v>35</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>35</v>
@@ -7148,13 +7152,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>35</v>
@@ -7173,20 +7177,20 @@
         <v>35</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>35</v>
@@ -7235,7 +7239,7 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>33</v>
@@ -7247,19 +7251,19 @@
         <v>35</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>35</v>
@@ -7267,10 +7271,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7281,7 +7285,7 @@
         <v>33</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>35</v>
@@ -7293,13 +7297,13 @@
         <v>35</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7350,13 +7354,13 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>35</v>
@@ -7365,7 +7369,7 @@
         <v>35</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>35</v>
@@ -7382,14 +7386,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7408,16 +7412,16 @@
         <v>35</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7455,19 +7459,19 @@
         <v>35</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>33</v>
@@ -7479,10 +7483,10 @@
         <v>35</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>35</v>
@@ -7499,10 +7503,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7513,31 +7517,31 @@
         <v>33</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>35</v>
@@ -7562,13 +7566,13 @@
         <v>35</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>35</v>
@@ -7586,22 +7590,22 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>35</v>
@@ -7610,7 +7614,7 @@
         <v>35</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>35</v>
@@ -7618,10 +7622,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7632,7 +7636,7 @@
         <v>33</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>35</v>
@@ -7641,22 +7645,22 @@
         <v>35</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>35</v>
@@ -7681,13 +7685,13 @@
         <v>35</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>35</v>
@@ -7705,22 +7709,22 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>35</v>
@@ -7729,7 +7733,7 @@
         <v>35</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>35</v>
@@ -7737,10 +7741,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7748,10 +7752,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>35</v>
@@ -7760,35 +7764,35 @@
         <v>35</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>35</v>
@@ -7824,22 +7828,22 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>35</v>
@@ -7848,7 +7852,7 @@
         <v>35</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>35</v>
@@ -7856,10 +7860,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7867,10 +7871,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>35</v>
@@ -7879,19 +7883,19 @@
         <v>35</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7905,7 +7909,7 @@
         <v>35</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>35</v>
@@ -7941,22 +7945,22 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>35</v>
@@ -7965,7 +7969,7 @@
         <v>35</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>35</v>
@@ -7973,10 +7977,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7987,7 +7991,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>35</v>
@@ -7996,16 +8000,16 @@
         <v>35</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8056,22 +8060,22 @@
         <v>35</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>35</v>
@@ -8080,7 +8084,7 @@
         <v>35</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>35</v>
@@ -8088,10 +8092,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8102,7 +8106,7 @@
         <v>33</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>35</v>
@@ -8111,19 +8115,19 @@
         <v>35</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8173,22 +8177,22 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>35</v>
@@ -8197,7 +8201,7 @@
         <v>35</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>35</v>
@@ -8205,13 +8209,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>35</v>
@@ -8221,7 +8225,7 @@
         <v>33</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>35</v>
@@ -8230,20 +8234,20 @@
         <v>35</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>35</v>
@@ -8292,7 +8296,7 @@
         <v>35</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>33</v>
@@ -8304,19 +8308,19 @@
         <v>35</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>35</v>
@@ -8324,10 +8328,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8338,7 +8342,7 @@
         <v>33</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>35</v>
@@ -8350,13 +8354,13 @@
         <v>35</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8407,13 +8411,13 @@
         <v>35</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>35</v>
@@ -8422,7 +8426,7 @@
         <v>35</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>35</v>
@@ -8439,14 +8443,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8465,16 +8469,16 @@
         <v>35</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8512,19 +8516,19 @@
         <v>35</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>33</v>
@@ -8536,10 +8540,10 @@
         <v>35</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>35</v>
@@ -8556,10 +8560,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8570,31 +8574,31 @@
         <v>33</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>35</v>
@@ -8619,13 +8623,13 @@
         <v>35</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>35</v>
@@ -8643,22 +8647,22 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>35</v>
@@ -8667,7 +8671,7 @@
         <v>35</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>35</v>
@@ -8675,10 +8679,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8689,7 +8693,7 @@
         <v>33</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>35</v>
@@ -8698,22 +8702,22 @@
         <v>35</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>35</v>
@@ -8738,13 +8742,13 @@
         <v>35</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>35</v>
@@ -8762,22 +8766,22 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>35</v>
@@ -8786,7 +8790,7 @@
         <v>35</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>35</v>
@@ -8794,10 +8798,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8805,10 +8809,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>35</v>
@@ -8817,35 +8821,35 @@
         <v>35</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>35</v>
@@ -8881,22 +8885,22 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>35</v>
@@ -8905,7 +8909,7 @@
         <v>35</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>35</v>
@@ -8913,10 +8917,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8924,10 +8928,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>35</v>
@@ -8936,19 +8940,19 @@
         <v>35</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8962,7 +8966,7 @@
         <v>35</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>35</v>
@@ -8998,22 +9002,22 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>35</v>
@@ -9022,7 +9026,7 @@
         <v>35</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>35</v>
@@ -9030,10 +9034,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9044,7 +9048,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>35</v>
@@ -9053,16 +9057,16 @@
         <v>35</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9113,22 +9117,22 @@
         <v>35</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>35</v>
@@ -9137,7 +9141,7 @@
         <v>35</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>35</v>
@@ -9145,10 +9149,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9159,7 +9163,7 @@
         <v>33</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>35</v>
@@ -9168,19 +9172,19 @@
         <v>35</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9230,22 +9234,22 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>35</v>
@@ -9254,7 +9258,7 @@
         <v>35</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>35</v>
@@ -9262,10 +9266,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9276,103 +9280,103 @@
         <v>33</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q65" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q65" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="AG65" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>35</v>
@@ -9383,10 +9387,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9406,22 +9410,22 @@
         <v>35</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>35</v>
@@ -9470,7 +9474,7 @@
         <v>35</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>33</v>
@@ -9482,19 +9486,19 @@
         <v>35</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>35</v>
@@ -9502,10 +9506,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9525,22 +9529,22 @@
         <v>35</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>35</v>
@@ -9589,7 +9593,7 @@
         <v>35</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>33</v>
@@ -9601,19 +9605,19 @@
         <v>35</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>35</v>
@@ -9621,10 +9625,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9632,10 +9636,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>35</v>
@@ -9644,22 +9648,22 @@
         <v>35</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>35</v>
@@ -9684,13 +9688,13 @@
         <v>35</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>35</v>
@@ -9708,31 +9712,31 @@
         <v>35</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>35</v>
@@ -9740,10 +9744,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9751,10 +9755,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>35</v>
@@ -9763,22 +9767,22 @@
         <v>35</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>35</v>
@@ -9827,42 +9831,42 @@
         <v>35</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9873,31 +9877,31 @@
         <v>33</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>35</v>
@@ -9946,31 +9950,31 @@
         <v>35</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>35</v>
@@ -9978,10 +9982,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10004,19 +10008,19 @@
         <v>35</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>35</v>
@@ -10065,7 +10069,7 @@
         <v>35</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>33</v>
@@ -10074,13 +10078,13 @@
         <v>34</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>35</v>
@@ -10089,7 +10093,7 @@
         <v>35</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>35</v>
@@ -10097,10 +10101,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10111,7 +10115,7 @@
         <v>33</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>35</v>
@@ -10123,17 +10127,17 @@
         <v>35</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>35</v>
@@ -10158,13 +10162,13 @@
         <v>35</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>35</v>
@@ -10182,31 +10186,31 @@
         <v>35</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>35</v>
@@ -10214,10 +10218,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10228,7 +10232,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>35</v>
@@ -10240,19 +10244,19 @@
         <v>35</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>35</v>
@@ -10301,31 +10305,31 @@
         <v>35</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>35</v>
@@ -10333,10 +10337,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10359,19 +10363,19 @@
         <v>35</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>35</v>
@@ -10420,7 +10424,7 @@
         <v>35</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>33</v>
@@ -10432,19 +10436,19 @@
         <v>35</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>35</v>
@@ -10452,10 +10456,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10478,19 +10482,19 @@
         <v>35</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>35</v>
@@ -10539,7 +10543,7 @@
         <v>35</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>33</v>
@@ -10551,13 +10555,13 @@
         <v>35</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>35</v>
@@ -10571,10 +10575,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10585,7 +10589,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>35</v>
@@ -10597,13 +10601,13 @@
         <v>35</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10654,13 +10658,13 @@
         <v>35</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>35</v>
@@ -10669,7 +10673,7 @@
         <v>35</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>35</v>
@@ -10686,14 +10690,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10712,16 +10716,16 @@
         <v>35</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10771,7 +10775,7 @@
         <v>35</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>33</v>
@@ -10783,10 +10787,10 @@
         <v>35</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>35</v>
@@ -10803,14 +10807,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10823,25 +10827,25 @@
         <v>35</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>35</v>
@@ -10890,7 +10894,7 @@
         <v>35</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>33</v>
@@ -10902,10 +10906,10 @@
         <v>35</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>35</v>
@@ -10922,10 +10926,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10948,17 +10952,17 @@
         <v>35</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>35</v>
@@ -10983,13 +10987,13 @@
         <v>35</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>35</v>
@@ -11007,7 +11011,7 @@
         <v>35</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>33</v>
@@ -11019,19 +11023,19 @@
         <v>35</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>35</v>
@@ -11039,10 +11043,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11053,7 +11057,7 @@
         <v>33</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>35</v>
@@ -11065,17 +11069,17 @@
         <v>35</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>35</v>
@@ -11124,31 +11128,31 @@
         <v>35</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>35</v>
@@ -11156,10 +11160,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11182,19 +11186,19 @@
         <v>35</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>35</v>
@@ -11243,7 +11247,7 @@
         <v>35</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>33</v>
@@ -11255,19 +11259,19 @@
         <v>35</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>35</v>
@@ -11275,10 +11279,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11289,7 +11293,7 @@
         <v>33</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>35</v>
@@ -11301,17 +11305,17 @@
         <v>35</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>35</v>
@@ -11360,31 +11364,31 @@
         <v>35</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>35</v>
@@ -11392,10 +11396,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11406,7 +11410,7 @@
         <v>33</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>35</v>
@@ -11418,17 +11422,17 @@
         <v>35</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>35</v>
@@ -11453,13 +11457,13 @@
         <v>35</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>35</v>
@@ -11477,31 +11481,31 @@
         <v>35</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>35</v>
@@ -11509,10 +11513,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11523,7 +11527,7 @@
         <v>33</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>35</v>
@@ -11535,17 +11539,17 @@
         <v>35</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>35</v>
@@ -11594,31 +11598,31 @@
         <v>35</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>35</v>
@@ -11626,10 +11630,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11640,7 +11644,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>35</v>
@@ -11652,13 +11656,13 @@
         <v>35</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11709,25 +11713,25 @@
         <v>35</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>35</v>
@@ -11741,10 +11745,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11767,19 +11771,19 @@
         <v>35</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>35</v>
@@ -11828,7 +11832,7 @@
         <v>35</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>33</v>
@@ -11840,13 +11844,13 @@
         <v>35</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>35</v>
@@ -11860,10 +11864,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11874,7 +11878,7 @@
         <v>33</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>35</v>
@@ -11886,13 +11890,13 @@
         <v>35</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11943,13 +11947,13 @@
         <v>35</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>35</v>
@@ -11958,7 +11962,7 @@
         <v>35</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>35</v>
@@ -11975,14 +11979,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12001,16 +12005,16 @@
         <v>35</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12060,7 +12064,7 @@
         <v>35</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>33</v>
@@ -12072,10 +12076,10 @@
         <v>35</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>35</v>
@@ -12092,14 +12096,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12112,25 +12116,25 @@
         <v>35</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>35</v>
@@ -12179,7 +12183,7 @@
         <v>35</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>33</v>
@@ -12191,10 +12195,10 @@
         <v>35</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>35</v>
@@ -12211,10 +12215,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12222,10 +12226,10 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>35</v>
@@ -12237,19 +12241,19 @@
         <v>35</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>35</v>
@@ -12274,13 +12278,13 @@
         <v>35</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>35</v>
@@ -12298,31 +12302,31 @@
         <v>35</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>35</v>
@@ -12330,10 +12334,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12344,7 +12348,7 @@
         <v>33</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>35</v>
@@ -12356,19 +12360,19 @@
         <v>35</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>35</v>
@@ -12417,31 +12421,31 @@
         <v>35</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>35</v>
@@ -12449,14 +12453,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12475,16 +12479,16 @@
         <v>35</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12534,7 +12538,7 @@
         <v>35</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>33</v>
@@ -12546,19 +12550,19 @@
         <v>35</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>35</v>
@@ -12566,10 +12570,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12580,7 +12584,7 @@
         <v>33</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>35</v>
@@ -12589,22 +12593,22 @@
         <v>35</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>35</v>
@@ -12653,25 +12657,25 @@
         <v>35</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>35</v>
@@ -12685,10 +12689,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12705,25 +12709,25 @@
         <v>35</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>35</v>
@@ -12772,7 +12776,7 @@
         <v>35</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>33</v>
@@ -12784,13 +12788,13 @@
         <v>35</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>35</v>
@@ -12804,10 +12808,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12818,7 +12822,7 @@
         <v>33</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>35</v>
@@ -12830,13 +12834,13 @@
         <v>35</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12887,13 +12891,13 @@
         <v>35</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>35</v>
@@ -12902,7 +12906,7 @@
         <v>35</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>35</v>
@@ -12919,14 +12923,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12945,16 +12949,16 @@
         <v>35</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13004,7 +13008,7 @@
         <v>35</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>33</v>
@@ -13016,10 +13020,10 @@
         <v>35</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>35</v>
@@ -13036,14 +13040,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13056,25 +13060,25 @@
         <v>35</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>35</v>
@@ -13123,7 +13127,7 @@
         <v>35</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>33</v>
@@ -13135,10 +13139,10 @@
         <v>35</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>35</v>
@@ -13155,10 +13159,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13166,10 +13170,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>35</v>
@@ -13178,19 +13182,19 @@
         <v>35</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13240,31 +13244,31 @@
         <v>35</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>35</v>
@@ -13272,10 +13276,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13283,10 +13287,10 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>35</v>
@@ -13295,16 +13299,16 @@
         <v>35</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13331,13 +13335,13 @@
         <v>35</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>35</v>
@@ -13355,25 +13359,25 @@
         <v>35</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>35</v>
